--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -518,11 +518,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'cluster': 16, 'training': 1329, 'window': 200, 'threshold': 3.0}</t>
+          <t>{'cluster': 15, 'training': 1330, 'window': 200, 'threshold': 8.0}</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.2120239068754017</v>
+        <v>0.5077524951193482</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[1600, 1700, 1800, 4000, 4100, 4200, 4400, 4500, 4600, 4700, 4800, 4900]</t>
+          <t>[1600, 1700, 1800, 4000, 4100, 4200, 4400, 4500, 4700, 4800, 4900]</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -558,11 +558,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'cluster': 14, 'training': 1177, 'window': 200, 'threshold': 1.5}</t>
+          <t>{'cluster': 14, 'training': 1256, 'window': 200, 'threshold': 2.5}</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.2517397562041879</v>
+        <v>0.7068190251011401</v>
       </c>
     </row>
     <row r="4">
@@ -598,11 +598,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'cluster': 12, 'training': 1204, 'window': 200, 'threshold': 1.0}</t>
+          <t>{'cluster': 16, 'training': 1236, 'window': 200, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.2564647619146854</v>
+        <v>0.8544361060485244</v>
       </c>
     </row>
     <row r="5">
@@ -638,11 +638,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'cluster': 23, 'training': 704, 'window': 200, 'threshold': 9.5}</t>
+          <t>{'cluster': 17, 'training': 751, 'window': 200, 'threshold': 2.5}</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1048812088556588</v>
+        <v>0.5201737459283322</v>
       </c>
     </row>
     <row r="6">
@@ -678,11 +678,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'cluster': 20, 'training': 738, 'window': 200, 'threshold': 4.0}</t>
+          <t>{'cluster': 19, 'training': 440, 'window': 200, 'threshold': 3.0}</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.1179139178711921</v>
+        <v>0.4550081070046872</v>
       </c>
     </row>
     <row r="7">
@@ -712,19 +712,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[10500, 10800]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.4762962962962962</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 10, 'training': 4479, 'window': 600, 'threshold': 3.5}</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4726196799892932</v>
       </c>
     </row>
     <row r="8">
@@ -752,19 +752,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[340, 360, 380, 740, 820, 1080, 1140, 1240, 1260, 1540, 1660, 1860, 1960, 2040, 2560, 2580, 2880, 3160, 3440, 4000, 4060, 4140, 4160, 4360, 4500, 4800, 5280, 5340, 5420, 5640, 5660, 5760, 5940, 6240, 6440, 6520, 6640, 6740, 6840, 6860, 6880, 6900, 6920, 7040, 7460, 7520, 7640, 7920, 7960, 8560, 8780, 8860, 8940, 9200, 9300, 9320, 9340, 9440, 9740, 9760, 10040, 10060, 10180, 10200, 10460, 10480, 11040, 11060, 11400, 11660, 11680, 11880, 11940, 12300, 12480, 12660, 12720, 12920, 12960, 12980, 13100, 13120, 13160, 13560, 13620, 13760, 13880, 14100, 14120, 14140, 14220, 14260, 14280, 14360, 14400, 14420, 14480, 14780, 14900]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.01704545454545455</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 10, 'training': 222, 'window': 40, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.840415807906538</v>
       </c>
     </row>
     <row r="9">
@@ -792,19 +792,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[2300, 4800]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 15, 'training': 2915, 'window': 200, 'threshold': 1.5}</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.022873396985233</v>
       </c>
     </row>
     <row r="10">
@@ -832,19 +832,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[300, 375, 2100, 2175, 2250, 2325, 2400]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 13, 'training': 178, 'window': 150, 'threshold': 1.0}</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.639962041983381</v>
       </c>
     </row>
     <row r="11">
@@ -874,19 +874,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[5000]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 14, 'training': 1011, 'window': 100, 'threshold': 4.5}</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.780867037829012</v>
       </c>
     </row>
     <row r="12">
@@ -958,19 +958,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[4392, 4758, 4941, 6588, 6771, 12810]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'cluster': 18, 'training': 4210, 'window': 366, 'threshold': 8.5}</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.8104959439951926</v>
       </c>
     </row>
   </sheetData>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -466,22 +466,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>our_identified</t>
+          <t>LAMP_identified</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>our_Overlap_merlin</t>
+          <t>LAMP_Overlap_merlin</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ourbest_param</t>
+          <t>LAMPbest_param</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ourtime_taken</t>
+          <t>LAMPtime_taken</t>
         </is>
       </c>
     </row>
@@ -510,19 +510,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1400, 1500, 1700, 1800, 2400, 2500, 2800, 2900, 3000, 3200, 3300, 3600, 3700]</t>
+          <t>[41, 70, 1641, 2391]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2195416164053076</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'cluster': 15, 'training': 1330, 'window': 200, 'threshold': 8.0}</t>
+          <t>{'window': 1350}</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.5077524951193482</v>
+        <v>454.5453051710501</v>
       </c>
     </row>
     <row r="3">
@@ -550,19 +550,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[1600, 1700, 1800, 4000, 4100, 4200, 4400, 4500, 4700, 4800, 4900]</t>
+          <t>[791]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'cluster': 14, 'training': 1256, 'window': 200, 'threshold': 2.5}</t>
+          <t>{'window': 1350}</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.7068190251011401</v>
+        <v>456.838918142952</v>
       </c>
     </row>
     <row r="4">
@@ -590,19 +590,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[1400, 1500, 1800, 1900]</t>
+          <t>[142]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'cluster': 16, 'training': 1236, 'window': 200, 'threshold': 4.5}</t>
+          <t>{'window': 1350}</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.8544361060485244</v>
+        <v>446.4360782511067</v>
       </c>
     </row>
     <row r="5">
@@ -630,19 +630,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[2200, 2300, 2400]</t>
+          <t>[1390]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'cluster': 17, 'training': 751, 'window': 200, 'threshold': 2.5}</t>
+          <t>{'window': 937}</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.5201737459283322</v>
+        <v>3.595658697187901</v>
       </c>
     </row>
     <row r="6">
@@ -670,19 +670,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[700, 800, 900, 1500, 1600, 1700]</t>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 454, 622, 631, 635, 728, 788, 803, 887, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>0.1004268139593271</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'cluster': 19, 'training': 440, 'window': 200, 'threshold': 3.0}</t>
+          <t>{'window': 750}</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.4550081070046872</v>
+        <v>3.610730522079393</v>
       </c>
     </row>
     <row r="7">
@@ -712,19 +712,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[10500, 10800]</t>
+          <t>[79]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.4762962962962962</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'cluster': 10, 'training': 4479, 'window': 600, 'threshold': 3.5}</t>
+          <t>{'window': 4017}</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.4726196799892932</v>
+        <v>2968.804398421198</v>
       </c>
     </row>
     <row r="8">
@@ -752,19 +752,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[340, 360, 380, 740, 820, 1080, 1140, 1240, 1260, 1540, 1660, 1860, 1960, 2040, 2560, 2580, 2880, 3160, 3440, 4000, 4060, 4140, 4160, 4360, 4500, 4800, 5280, 5340, 5420, 5640, 5660, 5760, 5940, 6240, 6440, 6520, 6640, 6740, 6840, 6860, 6880, 6900, 6920, 7040, 7460, 7520, 7640, 7920, 7960, 8560, 8780, 8860, 8940, 9200, 9300, 9320, 9340, 9440, 9740, 9760, 10040, 10060, 10180, 10200, 10460, 10480, 11040, 11060, 11400, 11660, 11680, 11880, 11940, 12300, 12480, 12660, 12720, 12920, 12960, 12980, 13100, 13120, 13160, 13560, 13620, 13760, 13880, 14100, 14120, 14140, 14220, 14260, 14280, 14360, 14400, 14420, 14480, 14780, 14900]</t>
+          <t>[6847]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.01704545454545455</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'cluster': 10, 'training': 222, 'window': 40, 'threshold': 4.5}</t>
+          <t>{'window': 1150}</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4.840415807906538</v>
+        <v>171.1526148349512</v>
       </c>
     </row>
     <row r="9">
@@ -792,19 +792,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[2300, 4800]</t>
+          <t>[4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5570, 5571, 5572, 5574, 5575, 6175, 6177, 6179, 6181, 6182, 6183, 6184, 6185, 6186, 6187, 6188, 6189, 6190, 6191, 6192, 6193, 6194, 6195, 6196, 6197, 6198, 6199, 6200, 6201, 6202, 6203, 6204, 6205, 6206, 6207, 6208, 6209, 6210, 6211, 6212, 6213, 6214, 6215, 6216, 6217, 6218, 6219, 6220, 6221, 6222, 6223, 6224, 6225, 6226, 6227, 6228, 6229, 6230, 6231, 6232, 6233, 6234, 6235, 6236, 6237, 6238, 6239, 6240, 6241, 6242, 6243, 6244, 6245, 6246, 6247, 6248, 6249, 6250, 6251, 6252, 6253, 6254, 6255, 6256, 6257, 6258, 6259, 6260, 6261, 6262, 6263, 6264, 6265, 6266, 6267, 6268, 6269, 6270, 6271, 6272, 6273, 6274, 6275, 6276, 6277, 6278, 6279, 6280, 6281, 6282, 6283, 6284, 6285, 6286, 6287, 6288, 6289, 6290, 6291, 6292, 6293, 6294, 6295, 6296, 6297, 6298, 6299, 6300, 6301, 6302, 6303, 6304, 6305, 6306, 6307, 6308, 6310, 6311, 6312, 6313, 6315, 6318, 6319, 6323, 6325, 6328, 7035, 7038, 7041, 7043, 7044, 7045, 7046, 7047, 7048, 7049, 7050, 7051, 7052, 7055, 7057, 7058, 7060, 7062, 7067, 7071, 7074, 7088, 7779, 7781, 7783, 7786, 7788, 7790, 7791, 7792, 7793, 7794, 7795, 7796, 7797, 7798, 7799, 7800, 7801, 7802, 7803, 7804, 7805, 7806, 7807, 7808, 7809, 7810, 7811, 7812, 7813, 7814, 7815, 7816, 7817, 7818, 7819, 7820, 7821, 7822, 7823, 7824, 7825, 7826, 7827, 7828, 7829, 7830, 7831, 7832, 7833, 7834, 7835, 7836, 7837, 7838, 7839, 7840, 7841, 7842, 7843, 7844, 7845, 7846, 7847, 7848, 7849, 7850, 7851, 7852, 7853, 7854, 7855, 7856, 7857, 7858, 7859, 7860, 7861, 7862, 7863, 7864, 7865, 7866, 7867, 7868, 7869, 7870, 7871, 7872, 7873, 7874, 7875, 7876, 7877, 7878, 7879, 7880, 7881, 7882, 7883, 7884, 7885, 7886, 7887, 7888, 7889, 7890, 7891, 7892, 7893, 7894, 7895, 7896, 7897, 7898, 7899, 7900, 7901, 7902, 7903, 7904, 7905, 7906, 7907, 7910, 7912, 7913, 7915, 7918, 7919, 7923, 7928, 7933, 8579, 8581, 8582, 8583, 8585, 8586, 8588, 8589, 8590, 8591, 8592, 8593, 8594, 8595, 8596, 8597, 8598, 8599, 8600, 8601, 8602, 8603, 8604, 8605, 8606, 8607, 8608, 8609, 8610, 8611, 8612, 8613, 8614, 8615, 8616, 8617, 8618, 8619, 8620, 8621, 8622, 8623, 8624, 8625, 8626, 8627, 8628, 8629, 8630, 8631, 8632, 8633, 8634, 8635, 8636, 8637, 8638, 8639, 8640, 8641, 8642, 8643, 8644, 8645, 8646, 8647, 8648, 8649, 8650, 8651, 8652, 8653, 8654, 8655, 8656, 8657, 8658, 8659, 8660, 8661, 8662, 8663, 8664, 8665, 8666, 8667, 8668, 8669, 8670, 8671, 8672, 8673, 8674, 8675, 8676, 8677, 8678, 8679, 8680, 8681, 8682, 8683, 8684, 8685, 8686, 8687, 8688, 8689, 8690, 8691, 8692, 8693, 8694, 8695, 8696, 8697, 8698, 8699, 8700, 8701, 8702, 8703, 8704, 8705, 8706, 8707, 8708, 8709, 8710, 8711, 8712, 8713, 8714, 8715, 8716, 8718, 8719, 8720, 8721, 8722, 8723, 8724, 8725, 8726, 8727, 8728, 8729, 8730, 8731, 8732, 8733, 8734, 8735, 8736, 8743, 9368, 9369, 9370, 9371, 9372, 9374, 9375, 9377, 9378, 9379, 9380, 9381, 9382, 9383, 9384, 9385, 9386, 9387, 9388, 9389, 9390, 9391, 9392, 9393, 9394, 9395, 9396, 9397, 9398, 9399, 9400, 9401, 9402, 9403, 9404, 9405, 9406, 9407, 9408, 9409, 9410, 9411, 9412, 9413, 9414, 9415, 9416, 9417, 9418, 9419, 9420, 9421, 9422, 9423, 9424, 9425, 9426, 9427, 9428, 9429, 9430, 9431, 9432, 9433, 9434, 9435, 9436, 9437, 9438, 9439, 9440, 9441, 9442, 9443, 9444, 9445, 9446, 9447, 9448, 9449, 9450, 9451, 9452, 9453, 9454, 9455, 9456, 9457, 9458, 9459, 9460, 9461, 9462, 9463, 9464, 9465, 9466, 9467, 9468, 9469, 9470, 9471, 9472, 9473, 9474, 9475, 9476, 9477, 9478, 9479, 9480, 9481, 9482, 9483, 9484, 9485, 9486, 9487, 9488, 9489, 9490, 9491, 9492, 9493, 9494, 9495, 9496, 9497, 9498, 9499, 9500, 9501, 9502, 9503, 9504, 9505, 9506, 9507, 9508, 9509, 9510, 9511, 9512, 9513, 9514, 9515, 9516, 9517, 9518, 9519, 9520, 9521, 9522, 9523, 9524, 9525, 9526, 9527, 9528, 9529, 9530, 9531, 9532, 9533, 9534, 9535, 9536, 9538, 9540, 9543, 9547, 9549, 10159, 10161, 10164, 10165, 10166, 10167, 10168, 10169, 10170, 10171, 10172, 10173, 10174, 10175, 10176, 10177, 10178, 10179, 10180, 10181, 10182, 10183, 10184, 10185, 10186, 10187, 10188, 10189, 10190, 10191, 10192, 10193, 10194, 10195, 10196, 10197, 10198, 10199, 10200, 10201, 10202, 10203, 10204, 10205, 10206, 10207, 10208, 10209, 10210, 10211, 10212, 10213, 10214, 10215, 10216, 10217, 10218, 10219, 10220, 10221, 10222, 10223, 10224, 10225, 10226, 10227, 10228, 10229, 10230, 10231, 10232, 10233, 10234, 10235, 10236, 10237, 10238, 10239, 10240, 10241, 10242, 10243, 10244, 10245, 10246, 10247, 10248, 10249, 10250, 10251, 10252, 10253, 10254, 10255, 10256, 10257, 10258, 10259, 10260, 10261, 10262, 10263, 10264, 10265, 10266, 10267, 10268, 10269, 10270, 10271, 10272, 10273, 10274, 10275, 10276, 10277, 10278, 10279, 10280, 10281, 10282, 10283, 10284, 10285, 10286, 10287, 10288, 10289, 10290, 10291, 10292, 10293, 10294, 10295, 10296, 10297, 10298, 10299, 10300, 10301, 10302, 10303, 10304, 10305, 10306, 10307, 10308, 10309, 10310, 10311, 10312, 10313, 10314, 10315, 10316, 10317, 10318, 10319, 10320, 10321, 10322, 10323, 10324, 10325, 10326, 10327, 10328, 10329, 10330, 10331, 10332, 10333, 10334, 10335, 10336, 10337, 10338, 10339, 10340, 10341, 10342, 10343, 10344, 10345, 10346, 10347, 10348, 10349, 10350, 10351, 10352, 10353, 10354, 10355, 10356, 10357, 10358, 10359, 10360, 10361, 10362, 10363, 10364, 10365, 10366, 10367, 10368, 10374, 10375, 11006, 11018, 11023, 11035, 11043, 11045, 11047, 11048, 11049, 11050, 11051, 11052, 11055, 11058, 11060, 11067, 11071, 12606, 12616, 12618, 12623, 12627, 12629, 12630, 12631, 12632, 12633, 12634, 12635, 12636, 12637, 12638, 12639, 12640, 12641, 12642, 12643, 12644, 12645, 12646, 12647, 12648, 12649, 12650, 12651, 12652, 12653, 12654, 12655, 12656, 12657, 12658, 12659, 12660, 12661, 12662, 12663, 12664, 12665, 12666, 12667, 12668, 12669, 12670, 12671, 12672, 12673, 12674, 12675, 12676, 12677, 12678, 12679, 12680, 12681, 12683, 12684, 12687, 12688, 12690, 13448, 13449, 13450, 13451, 13452, 13454, 13455, 13456, 13457, 13458, 13459, 13460, 13461, 13462, 13464, 13465, 13467, 13470, 13471, 13472, 13474, 14157, 14158, 14159, 14160, 14161, 14162, 14163, 14164, 14165, 14166, 14167, 14168, 14169, 14170, 14171, 14172, 14173, 14174, 14175, 14176, 14177, 14178, 14179, 14180, 14181, 14182, 14183, 14184, 14185, 14186, 14187, 14188, 14189, 14190, 14191, 14192, 14193, 14194, 14195, 14196, 14197, 14198, 14199, 14200, 14201, 14202, 14203, 14204, 14205, 14206, 14207, 14208, 14209, 14210, 14211, 14212, 14213, 14214, 14215, 14216, 14217, 14218, 14219, 14220, 14221, 14222, 14223, 14224, 14225, 14226, 14227, 14228, 14229, 14230, 14231, 14232, 14233, 14234, 14235, 14236, 14237, 14238, 14239, 14240, 14241, 14242, 14243, 14244, 14245, 14246, 14247, 14248, 14249, 14250, 14251, 14252, 14253, 14254, 14255, 14256, 14257, 14258, 14259, 14260, 14261, 14262, 14263, 14264, 14265, 14266, 14267, 14268, 14269, 14270, 14271, 14272, 14273, 14274, 14275, 14276, 14277, 14278, 14279, 14280, 14281, 14282, 14283, 14284, 14285, 14286, 14287, 14288, 14289, 14290, 14291, 14292, 14293, 14294, 14295, 14296, 14297, 14298, 14299, 14300, 14301, 14302, 14303, 14304, 14305, 14306, 14307, 14308, 14309, 14310, 14311, 14312, 14313, 14314, 14315, 14316, 14317, 14318, 14319, 14320, 14321, 14322, 14323, 14324, 14325, 14326, 14327, 14328, 14329, 14330, 14331, 14332, 14333, 14334, 14335, 14336, 14337, 14338, 14339, 14340, 14341, 14342, 14343, 14344, 14345, 14346, 14347, 14348, 14349, 14350, 14351, 14352, 14353, 14354, 14355, 14356, 14357, 14358, 14359, 14360, 14361, 14362, 14363, 14364, 14365, 14366, 14367, 14368, 14369, 14370, 14371, 14372, 14373, 14374, 14375, 14376]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'cluster': 15, 'training': 2915, 'window': 200, 'threshold': 1.5}</t>
+          <t>{'window': 2250}</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2.022873396985233</v>
+        <v>821.0664256049786</v>
       </c>
     </row>
     <row r="10">
@@ -832,19 +832,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[300, 375, 2100, 2175, 2250, 2325, 2400]</t>
+          <t>[128, 142, 270, 341, 377, 402, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2633889376646181</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'cluster': 13, 'training': 178, 'window': 150, 'threshold': 1.0}</t>
+          <t>{'window': 300}</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.639962041983381</v>
+        <v>2.821265228791162</v>
       </c>
     </row>
     <row r="11">
@@ -874,19 +874,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[5000]</t>
+          <t>[44, 318, 344, 812, 1196, 1580]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'cluster': 14, 'training': 1011, 'window': 100, 'threshold': 4.5}</t>
+          <t>{'window': 800}</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3.780867037829012</v>
+        <v>142.7627712760586</v>
       </c>
     </row>
     <row r="12">
@@ -958,19 +958,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[4392, 4758, 4941, 6588, 6771, 12810]</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'cluster': 18, 'training': 4210, 'window': 366, 'threshold': 8.5}</t>
+          <t>params</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8104959439951926</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,26 @@
           <t>LAMPtime_taken</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>matrix_profile_identified</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>matrix_profile_Overlap_merlin</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>matrix_profilebest_param</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>matrix_profiletime_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,6 +544,22 @@
       <c r="J2" t="n">
         <v>454.5453051710501</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399]</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.06897740989825832</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 2}</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0.04688363010063767</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +600,22 @@
       <c r="J3" t="n">
         <v>456.838918142952</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[4019, 4119, 4325]</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5542857142857143</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04657184798270464</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -604,6 +656,22 @@
       <c r="J4" t="n">
         <v>446.4360782511067</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[1794, 1998, 2115]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5467224546722456</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0465080130379647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +712,22 @@
       <c r="J5" t="n">
         <v>3.595658697187901</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[2237, 2358, 2472]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6299212598425197</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02538140001706779</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +768,22 @@
       <c r="J6" t="n">
         <v>3.610730522079393</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[633]</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1}</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02513470803387463</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,6 +826,22 @@
       <c r="J7" t="n">
         <v>2968.804398421198</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[4001, 10352, 10870]</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8214894826606027</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6312010691035539</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -766,6 +882,22 @@
       <c r="J8" t="n">
         <v>171.1526148349512</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.005305391604217786</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1}</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2957163159735501</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -806,6 +938,22 @@
       <c r="J9" t="n">
         <v>821.0664256049786</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[2288]</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1}</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3001744151115417</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -846,6 +994,22 @@
       <c r="J10" t="n">
         <v>2.821265228791162</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.282284809043631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -888,6 +1052,22 @@
       <c r="J11" t="n">
         <v>142.7627712760586</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[4880, 4968, 5018]</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.45662100456621</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3}</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06317739910446107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -930,6 +1110,22 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -970,6 +1166,22 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
           <t>matrix_profiletime_taken</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>hotsax_identified</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>hotsax_Overlap_merlin</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>hotsaxbest_param</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>hotsaxtime_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +580,22 @@
       <c r="N2" t="n">
         <v>0.04688363010063767</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399]</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0.06897740989825832</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1, 'paa_size': 0, 'number_symbols': 10}</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01559869386255741</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -616,6 +652,22 @@
       <c r="N3" t="n">
         <v>0.04657184798270464</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399]</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0.06897740989825832</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1, 'paa_size': 8, 'number_symbols': 2}</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01513355621136725</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -672,6 +724,22 @@
       <c r="N4" t="n">
         <v>0.0465080130379647</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[1794]</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 2, 'paa_size': 11, 'number_symbols': 10}</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>31.14406605693512</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -728,6 +796,22 @@
       <c r="N5" t="n">
         <v>0.02538140001706779</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[2237, 2472]</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5933333333333334</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3, 'paa_size': 7, 'number_symbols': 5}</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>11.99343035300262</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,6 +868,22 @@
       <c r="N6" t="n">
         <v>0.02513470803387463</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[628]</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 2, 'paa_size': 10, 'number_symbols': 2}</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>11.22897906089202</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -842,6 +942,22 @@
       <c r="N7" t="n">
         <v>0.6312010691035539</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[4001, 10870]</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7886666666666666</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 4, 'paa_size': 4, 'number_symbols': 5}</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>209.1645178720355</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -898,6 +1014,22 @@
       <c r="N8" t="n">
         <v>0.2957163159735501</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.005305391604217786</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3, 'paa_size': 7, 'number_symbols': 9}</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>51.35332999099046</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -954,6 +1086,22 @@
       <c r="N9" t="n">
         <v>0.3001744151115417</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[2288]</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 2, 'paa_size': 11, 'number_symbols': 10}</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>56.37748028920032</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1010,6 +1158,22 @@
       <c r="N10" t="n">
         <v>0.282284809043631</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 2, 'paa_size': 11, 'number_symbols': 2}</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>40.23478675005026</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1068,6 +1232,22 @@
       <c r="N11" t="n">
         <v>0.06317739910446107</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0588321812031181</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 1, 'paa_size': 2, 'number_symbols': 5}</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>0.01062476495280862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1112,19 +1292,35 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[7786, 11010, 11453, 11904, 33993]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.7591623036649214</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'nbr_of_discord': 5}</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.627942167920992</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.163938625477087</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3, 'paa_size': 5, 'number_symbols': 3}</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2553119088988751</v>
       </c>
     </row>
     <row r="13">
@@ -1170,19 +1366,35 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.08012259194395797</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'nbr_of_discord': 2}</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.7189221179578453</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.08012259194395797</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{'nbr_of_discord': 3, 'paa_size': 6, 'number_symbols': 10}</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>377.1959730519447</v>
       </c>
     </row>
   </sheetData>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -574,11 +574,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2}</t>
+          <t>{'nbr_of_discord': 3}</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04688363010063767</v>
+        <v>0.2068910328671336</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -590,11 +590,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 1, 'paa_size': 0, 'number_symbols': 10}</t>
+          <t>{'nbr_of_discord': 1, 'paa_size': 3, 'number_symbols': 10}</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.01559869386255741</v>
+        <v>0.03550573112443089</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04657184798270464</v>
+        <v>0.08758363500237465</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0465080130379647</v>
+        <v>0.09708475694060326</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.02538140001706779</v>
+        <v>0.1412519870791584</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>11.99343035300262</v>
+        <v>41.6175090149045</v>
       </c>
     </row>
     <row r="6">
@@ -866,23 +866,23 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02513470803387463</v>
+        <v>0.08168859221041203</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[628]</t>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749]</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.39</v>
+        <v>0.09640877319836105</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2, 'paa_size': 10, 'number_symbols': 2}</t>
+          <t>{'nbr_of_discord': 1, 'paa_size': 3, 'number_symbols': 10}</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>11.22897906089202</v>
+        <v>0.05063261999748647</v>
       </c>
     </row>
     <row r="7">
@@ -940,23 +940,23 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.6312010691035539</v>
+        <v>0.6277845858130604</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[4001, 10870]</t>
+          <t>[10870]</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7886666666666666</v>
+        <v>0.4991666666666666</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 4, 'paa_size': 4, 'number_symbols': 5}</t>
+          <t>{'nbr_of_discord': 3, 'paa_size': 7, 'number_symbols': 2}</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>209.1645178720355</v>
+        <v>760.0004352540709</v>
       </c>
     </row>
     <row r="8">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 1}</t>
+          <t>{'nbr_of_discord': 2}</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2957163159735501</v>
+        <v>0.5421023250091821</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1024,11 +1024,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3, 'paa_size': 7, 'number_symbols': 9}</t>
+          <t>{'nbr_of_discord': 3, 'paa_size': 5, 'number_symbols': 9}</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>51.35332999099046</v>
+        <v>146.0017200580332</v>
       </c>
     </row>
     <row r="9">
@@ -1084,23 +1084,23 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3001744151115417</v>
+        <v>0.3054249219130725</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[2288]</t>
+          <t>[2087, 2288]</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6633333333333334</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2, 'paa_size': 11, 'number_symbols': 10}</t>
+          <t>{'nbr_of_discord': 3, 'paa_size': 9, 'number_symbols': 5}</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>56.37748028920032</v>
+        <v>110.1698981439695</v>
       </c>
     </row>
     <row r="10">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3}</t>
+          <t>{'nbr_of_discord': 2}</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.282284809043631</v>
+        <v>0.2902566529810429</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2, 'paa_size': 11, 'number_symbols': 2}</t>
+          <t>{'nbr_of_discord': 3, 'paa_size': 3, 'number_symbols': 9}</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>40.23478675005026</v>
+        <v>231.9125139610842</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.06317739910446107</v>
+        <v>0.3579825779888779</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 1, 'paa_size': 2, 'number_symbols': 5}</t>
+          <t>{'nbr_of_discord': 1, 'paa_size': 5, 'number_symbols': 2}</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01062476495280862</v>
+        <v>0.0345375060569495</v>
       </c>
     </row>
     <row r="12">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.627942167920992</v>
+        <v>2.548534706933424</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3, 'paa_size': 5, 'number_symbols': 3}</t>
+          <t>{'nbr_of_discord': 3, 'paa_size': 5, 'number_symbols': 0}</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2553119088988751</v>
+        <v>0.1674407089594752</v>
       </c>
     </row>
     <row r="13">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2}</t>
+          <t>{'nbr_of_discord': 3}</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.7189221179578453</v>
+        <v>1.049737927038223</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -550,11 +550,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[41, 70, 1641, 2391]</t>
+          <t>[267]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2195416164053076</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>454.5453051710501</v>
+        <v>554.6600588600013</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[791]</t>
+          <t>[142]</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>456.838918142952</v>
+        <v>442.8905280350009</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>446.4360782511067</v>
+        <v>554.5291430090001</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -766,11 +766,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[1390]</t>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09638554216867469</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.595658697187901</v>
+        <v>443.3070761420004</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -846,11 +846,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'window': 750}</t>
+          <t>{'window': 937}</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.610730522079393</v>
+        <v>3.541877360999933</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -912,19 +912,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[79]</t>
+          <t>[2479, 3106, 3149, 3304, 3337, 3501, 3534, 3540, 3612, 3818, 4071, 4321]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.2846975088967972</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'window': 4017}</t>
+          <t>{'window': 5400}</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2968.804398421198</v>
+        <v>7162.457167512999</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -984,19 +984,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[6847]</t>
+          <t>[1132]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'window': 1150}</t>
+          <t>{'window': 3750}</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>171.1526148349512</v>
+        <v>850.9768231689995</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1056,19 +1056,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5570, 5571, 5572, 5574, 5575, 6175, 6177, 6179, 6181, 6182, 6183, 6184, 6185, 6186, 6187, 6188, 6189, 6190, 6191, 6192, 6193, 6194, 6195, 6196, 6197, 6198, 6199, 6200, 6201, 6202, 6203, 6204, 6205, 6206, 6207, 6208, 6209, 6210, 6211, 6212, 6213, 6214, 6215, 6216, 6217, 6218, 6219, 6220, 6221, 6222, 6223, 6224, 6225, 6226, 6227, 6228, 6229, 6230, 6231, 6232, 6233, 6234, 6235, 6236, 6237, 6238, 6239, 6240, 6241, 6242, 6243, 6244, 6245, 6246, 6247, 6248, 6249, 6250, 6251, 6252, 6253, 6254, 6255, 6256, 6257, 6258, 6259, 6260, 6261, 6262, 6263, 6264, 6265, 6266, 6267, 6268, 6269, 6270, 6271, 6272, 6273, 6274, 6275, 6276, 6277, 6278, 6279, 6280, 6281, 6282, 6283, 6284, 6285, 6286, 6287, 6288, 6289, 6290, 6291, 6292, 6293, 6294, 6295, 6296, 6297, 6298, 6299, 6300, 6301, 6302, 6303, 6304, 6305, 6306, 6307, 6308, 6310, 6311, 6312, 6313, 6315, 6318, 6319, 6323, 6325, 6328, 7035, 7038, 7041, 7043, 7044, 7045, 7046, 7047, 7048, 7049, 7050, 7051, 7052, 7055, 7057, 7058, 7060, 7062, 7067, 7071, 7074, 7088, 7779, 7781, 7783, 7786, 7788, 7790, 7791, 7792, 7793, 7794, 7795, 7796, 7797, 7798, 7799, 7800, 7801, 7802, 7803, 7804, 7805, 7806, 7807, 7808, 7809, 7810, 7811, 7812, 7813, 7814, 7815, 7816, 7817, 7818, 7819, 7820, 7821, 7822, 7823, 7824, 7825, 7826, 7827, 7828, 7829, 7830, 7831, 7832, 7833, 7834, 7835, 7836, 7837, 7838, 7839, 7840, 7841, 7842, 7843, 7844, 7845, 7846, 7847, 7848, 7849, 7850, 7851, 7852, 7853, 7854, 7855, 7856, 7857, 7858, 7859, 7860, 7861, 7862, 7863, 7864, 7865, 7866, 7867, 7868, 7869, 7870, 7871, 7872, 7873, 7874, 7875, 7876, 7877, 7878, 7879, 7880, 7881, 7882, 7883, 7884, 7885, 7886, 7887, 7888, 7889, 7890, 7891, 7892, 7893, 7894, 7895, 7896, 7897, 7898, 7899, 7900, 7901, 7902, 7903, 7904, 7905, 7906, 7907, 7910, 7912, 7913, 7915, 7918, 7919, 7923, 7928, 7933, 8579, 8581, 8582, 8583, 8585, 8586, 8588, 8589, 8590, 8591, 8592, 8593, 8594, 8595, 8596, 8597, 8598, 8599, 8600, 8601, 8602, 8603, 8604, 8605, 8606, 8607, 8608, 8609, 8610, 8611, 8612, 8613, 8614, 8615, 8616, 8617, 8618, 8619, 8620, 8621, 8622, 8623, 8624, 8625, 8626, 8627, 8628, 8629, 8630, 8631, 8632, 8633, 8634, 8635, 8636, 8637, 8638, 8639, 8640, 8641, 8642, 8643, 8644, 8645, 8646, 8647, 8648, 8649, 8650, 8651, 8652, 8653, 8654, 8655, 8656, 8657, 8658, 8659, 8660, 8661, 8662, 8663, 8664, 8665, 8666, 8667, 8668, 8669, 8670, 8671, 8672, 8673, 8674, 8675, 8676, 8677, 8678, 8679, 8680, 8681, 8682, 8683, 8684, 8685, 8686, 8687, 8688, 8689, 8690, 8691, 8692, 8693, 8694, 8695, 8696, 8697, 8698, 8699, 8700, 8701, 8702, 8703, 8704, 8705, 8706, 8707, 8708, 8709, 8710, 8711, 8712, 8713, 8714, 8715, 8716, 8718, 8719, 8720, 8721, 8722, 8723, 8724, 8725, 8726, 8727, 8728, 8729, 8730, 8731, 8732, 8733, 8734, 8735, 8736, 8743, 9368, 9369, 9370, 9371, 9372, 9374, 9375, 9377, 9378, 9379, 9380, 9381, 9382, 9383, 9384, 9385, 9386, 9387, 9388, 9389, 9390, 9391, 9392, 9393, 9394, 9395, 9396, 9397, 9398, 9399, 9400, 9401, 9402, 9403, 9404, 9405, 9406, 9407, 9408, 9409, 9410, 9411, 9412, 9413, 9414, 9415, 9416, 9417, 9418, 9419, 9420, 9421, 9422, 9423, 9424, 9425, 9426, 9427, 9428, 9429, 9430, 9431, 9432, 9433, 9434, 9435, 9436, 9437, 9438, 9439, 9440, 9441, 9442, 9443, 9444, 9445, 9446, 9447, 9448, 9449, 9450, 9451, 9452, 9453, 9454, 9455, 9456, 9457, 9458, 9459, 9460, 9461, 9462, 9463, 9464, 9465, 9466, 9467, 9468, 9469, 9470, 9471, 9472, 9473, 9474, 9475, 9476, 9477, 9478, 9479, 9480, 9481, 9482, 9483, 9484, 9485, 9486, 9487, 9488, 9489, 9490, 9491, 9492, 9493, 9494, 9495, 9496, 9497, 9498, 9499, 9500, 9501, 9502, 9503, 9504, 9505, 9506, 9507, 9508, 9509, 9510, 9511, 9512, 9513, 9514, 9515, 9516, 9517, 9518, 9519, 9520, 9521, 9522, 9523, 9524, 9525, 9526, 9527, 9528, 9529, 9530, 9531, 9532, 9533, 9534, 9535, 9536, 9538, 9540, 9543, 9547, 9549, 10159, 10161, 10164, 10165, 10166, 10167, 10168, 10169, 10170, 10171, 10172, 10173, 10174, 10175, 10176, 10177, 10178, 10179, 10180, 10181, 10182, 10183, 10184, 10185, 10186, 10187, 10188, 10189, 10190, 10191, 10192, 10193, 10194, 10195, 10196, 10197, 10198, 10199, 10200, 10201, 10202, 10203, 10204, 10205, 10206, 10207, 10208, 10209, 10210, 10211, 10212, 10213, 10214, 10215, 10216, 10217, 10218, 10219, 10220, 10221, 10222, 10223, 10224, 10225, 10226, 10227, 10228, 10229, 10230, 10231, 10232, 10233, 10234, 10235, 10236, 10237, 10238, 10239, 10240, 10241, 10242, 10243, 10244, 10245, 10246, 10247, 10248, 10249, 10250, 10251, 10252, 10253, 10254, 10255, 10256, 10257, 10258, 10259, 10260, 10261, 10262, 10263, 10264, 10265, 10266, 10267, 10268, 10269, 10270, 10271, 10272, 10273, 10274, 10275, 10276, 10277, 10278, 10279, 10280, 10281, 10282, 10283, 10284, 10285, 10286, 10287, 10288, 10289, 10290, 10291, 10292, 10293, 10294, 10295, 10296, 10297, 10298, 10299, 10300, 10301, 10302, 10303, 10304, 10305, 10306, 10307, 10308, 10309, 10310, 10311, 10312, 10313, 10314, 10315, 10316, 10317, 10318, 10319, 10320, 10321, 10322, 10323, 10324, 10325, 10326, 10327, 10328, 10329, 10330, 10331, 10332, 10333, 10334, 10335, 10336, 10337, 10338, 10339, 10340, 10341, 10342, 10343, 10344, 10345, 10346, 10347, 10348, 10349, 10350, 10351, 10352, 10353, 10354, 10355, 10356, 10357, 10358, 10359, 10360, 10361, 10362, 10363, 10364, 10365, 10366, 10367, 10368, 10374, 10375, 11006, 11018, 11023, 11035, 11043, 11045, 11047, 11048, 11049, 11050, 11051, 11052, 11055, 11058, 11060, 11067, 11071, 12606, 12616, 12618, 12623, 12627, 12629, 12630, 12631, 12632, 12633, 12634, 12635, 12636, 12637, 12638, 12639, 12640, 12641, 12642, 12643, 12644, 12645, 12646, 12647, 12648, 12649, 12650, 12651, 12652, 12653, 12654, 12655, 12656, 12657, 12658, 12659, 12660, 12661, 12662, 12663, 12664, 12665, 12666, 12667, 12668, 12669, 12670, 12671, 12672, 12673, 12674, 12675, 12676, 12677, 12678, 12679, 12680, 12681, 12683, 12684, 12687, 12688, 12690, 13448, 13449, 13450, 13451, 13452, 13454, 13455, 13456, 13457, 13458, 13459, 13460, 13461, 13462, 13464, 13465, 13467, 13470, 13471, 13472, 13474, 14157, 14158, 14159, 14160, 14161, 14162, 14163, 14164, 14165, 14166, 14167, 14168, 14169, 14170, 14171, 14172, 14173, 14174, 14175, 14176, 14177, 14178, 14179, 14180, 14181, 14182, 14183, 14184, 14185, 14186, 14187, 14188, 14189, 14190, 14191, 14192, 14193, 14194, 14195, 14196, 14197, 14198, 14199, 14200, 14201, 14202, 14203, 14204, 14205, 14206, 14207, 14208, 14209, 14210, 14211, 14212, 14213, 14214, 14215, 14216, 14217, 14218, 14219, 14220, 14221, 14222, 14223, 14224, 14225, 14226, 14227, 14228, 14229, 14230, 14231, 14232, 14233, 14234, 14235, 14236, 14237, 14238, 14239, 14240, 14241, 14242, 14243, 14244, 14245, 14246, 14247, 14248, 14249, 14250, 14251, 14252, 14253, 14254, 14255, 14256, 14257, 14258, 14259, 14260, 14261, 14262, 14263, 14264, 14265, 14266, 14267, 14268, 14269, 14270, 14271, 14272, 14273, 14274, 14275, 14276, 14277, 14278, 14279, 14280, 14281, 14282, 14283, 14284, 14285, 14286, 14287, 14288, 14289, 14290, 14291, 14292, 14293, 14294, 14295, 14296, 14297, 14298, 14299, 14300, 14301, 14302, 14303, 14304, 14305, 14306, 14307, 14308, 14309, 14310, 14311, 14312, 14313, 14314, 14315, 14316, 14317, 14318, 14319, 14320, 14321, 14322, 14323, 14324, 14325, 14326, 14327, 14328, 14329, 14330, 14331, 14332, 14333, 14334, 14335, 14336, 14337, 14338, 14339, 14340, 14341, 14342, 14343, 14344, 14345, 14346, 14347, 14348, 14349, 14350, 14351, 14352, 14353, 14354, 14355, 14356, 14357, 14358, 14359, 14360, 14361, 14362, 14363, 14364, 14365, 14366, 14367, 14368, 14369, 14370, 14371, 14372, 14373, 14374, 14375, 14376]</t>
+          <t>[2179, 2182, 2183, 2185, 2186, 2188, 2190, 2191, 2192, 2195, 2200, 2201, 2202, 2206, 2211, 2213, 2214, 2235, 2243, 2248, 2255, 2257, 2258, 3299, 3309, 3314, 3317, 3321, 3326, 3332, 3333, 3334, 3342, 3382, 3465, 3467, 3469, 3477, 3478, 3479, 3483, 3484, 3485, 3486, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3504, 3505, 3507, 3508, 3509, 3510, 3512, 3513, 3514, 3515, 3521, 3523, 3524, 3528, 3530, 3533, 3536, 3545, 3552, 3553, 3556, 3557, 3559, 3561, 3564, 3568, 3569, 3570, 3571, 3572, 3574, 3576, 3579, 3580, 3582, 3583, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3604, 3605, 3606, 3607, 3608, 3609, 3612, 3613, 3614, 3617, 3618, 3619, 3621, 3622, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3877, 3878, 3880, 3881, 3882, 3883, 3884, 3885, 3887, 3888, 3889, 3890, 3895, 3896, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3994, 3995, 3996, 3997, 3998, 3999, 4476, 4481, 4483, 4484, 4492, 4501, 4506, 4509, 4510, 4511, 4512, 4515, 4516, 4517, 4519, 4520, 4521, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4537, 4538, 4539, 4540, 4541, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4573, 4574, 4575, 4577, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4595, 4596, 4597, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4610, 4611, 4613, 4614, 4616, 4617, 4618, 4619, 4621, 4622, 4623, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4638, 4639, 4643, 4646, 4647, 4648, 4649, 4650, 4652, 4655, 4656, 4657, 4658, 4667, 4671, 4688, 4696, 4724, 4740, 4747, 4750, 4755, 4761, 5251, 5253, 5259, 5263, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5464, 5465, 5466, 5467, 5468, 5470, 5471, 5472, 5473, 5474, 5477, 5478, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5518, 5519, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 8451, 8459, 8463, 8468, 8469, 8470, 8471, 8472, 8473, 8474, 8475, 8476, 8477, 8478, 8479, 8480, 8481, 8482, 8483, 8484, 8485, 8486, 8487, 8488, 8489, 8491, 8492, 8493, 8494, 8495, 8496, 8497, 8498, 8499, 8500, 8501, 8502, 8503, 8504, 8505, 8506, 8507, 8508, 8509, 8510, 8511, 8512, 8514, 8515, 8516, 8517, 8518, 8519, 8520, 8521, 8522, 8523, 8524, 8525, 8526, 8527, 8528, 8529, 8530, 8531, 8532, 8533, 8534, 8535, 8536, 8537, 8538, 8539, 8540, 8541, 8542, 8543, 8544, 8545, 8546, 8547, 8548, 8549, 8550, 8551, 8552, 8553, 8554, 8555, 8556, 8557, 8558, 8559, 8560, 8561, 8562, 8563, 8564, 8565, 8566, 8567, 8568, 8569, 8570, 8571, 8572, 8573, 8574, 8575, 8576, 8577, 8578, 8579, 8580, 8581, 8582, 8583, 8584, 8585, 8586, 8587, 8588, 8589, 8590, 8591, 8592, 8593, 8594, 8595, 8596, 8597, 8598, 8599, 8600, 8601, 8602, 8603, 8604, 8605, 8606, 8607, 8608, 8609, 8610, 8611, 8612, 8613, 8614, 8615, 8616, 8617, 8618, 8619, 8620, 8621, 8622, 8623, 8624, 8625, 8626, 8627, 8628, 8629, 8630, 8631, 8632, 8633, 8634, 8635, 8636, 8637, 8638, 8639, 8640, 8641, 8642, 8643, 8644, 8645, 8646, 8647, 8648, 8649, 8650, 8651, 8652, 8653, 8655, 8656, 8657, 8658, 8659, 8661, 8662, 8667, 8670, 8671, 8672, 8673, 8674, 8680, 8681, 8682, 8683, 8688, 8689, 8690, 8695, 8696, 8700, 8701, 8704, 8705, 8706, 8707, 8708, 8710, 8711, 8712, 8715, 8718, 8719, 8721, 8722, 8723, 8724, 8725, 8726, 8727, 8728, 8730, 8731, 8732, 8733, 8734, 8735, 8736, 8738, 8739, 8740, 8741, 8742, 8743, 8744, 8745, 8746, 8747, 8748, 8749, 8750, 8751, 8752, 8753, 8754, 8755, 8756, 8757, 8758, 8759, 8760, 8761, 8762, 8763, 8764, 8765, 8766, 8767, 8768, 8769, 8770, 8771, 8772, 8773, 8774, 8775, 8776, 8777, 8778, 8779, 8780, 8781, 8782, 8783, 8784, 8785, 8786, 8787, 8788, 8789, 8790, 8791, 8794, 8795, 8796, 8797, 8798, 8799, 9301, 9306, 9309, 9311, 9312, 9316, 9317, 9319, 9320, 9321, 9323, 9327, 9328, 9329, 9331, 9332, 9333, 9334, 9335, 9337, 9338, 9339, 9343, 9345, 9347, 9350, 9351, 9353, 9354, 9357, 9358, 9359, 9360, 9361, 9362, 9363, 9364, 9365, 9366, 9367, 9368, 9369, 9373, 9375, 9377, 9379, 9380, 9381, 9382, 9383, 9385, 9386, 9387, 9388, 9390, 9391, 9392, 9393, 9395, 9396, 9399, 9400, 9401, 9402, 9403, 9405, 9406, 9407, 9411, 9413, 9414, 9416, 9418, 9419, 9421, 9422, 9423, 9426, 9427, 9428, 9429, 9430, 9431, 9432, 9433, 9435, 9436, 9438, 9439, 9443, 9446, 9447, 9448, 9452, 9455, 9456, 9457, 9458, 9467, 9471, 9550, 9561, 10116, 10120, 10123, 10132, 10133, 10138, 10143, 10145, 10147, 10153, 10157, 10161, 10162, 10163, 10164, 10166, 10167, 10169, 10173, 10177, 10181, 10183, 10186, 10187, 10188, 10191, 10192, 10195, 10202, 10206, 10214, 10218, 10221, 10226, 10235, 10243, 10248, 10252, 10257, 10258, 10933, 10943, 10945, 10953, 10957, 10961, 10962, 10963, 10964, 10966, 10967, 10969, 10973, 10981, 10983, 10988, 10992, 10995, 11002, 11006, 11058, 11716, 11720, 11761, 11766, 11769, 11773, 11781, 11783, 11786, 11787, 11788, 11790, 11791, 11792, 11793, 11795, 11796, 11799, 11800, 11801, 11802, 11805, 11806, 11807, 11808, 11810, 11811, 11813, 11814, 11816, 11818, 11819, 11821, 11823, 11826, 11832, 11835, 11843, 11848, 11852, 11857, 11858, 11867, 11888, 11890, 11895, 11896, 11900, 11901, 11904, 11905, 11906, 11907, 11908, 11909, 11910, 11911, 11912, 11913, 11915, 11918, 11919, 11921, 11922, 11923, 11924, 11925, 11926, 11927, 11928, 11930, 11931, 11932, 11933, 11934, 11935, 11936, 11940, 11941, 11945, 11947, 11950, 11955, 11957, 11961, 11972, 11974, 11991, 12439, 12440, 12443, 12444, 12445, 12446, 12448, 12449, 12450, 12451, 12452, 12453, 12454, 12455, 12456, 12458, 12459, 12460, 12461, 12462, 12463, 12465, 12466, 12467, 12468, 12469, 12470, 12471, 12472, 12473, 12474, 12475, 12476, 12477, 12478, 12479, 12480, 12481, 12482, 12483, 12484, 12485, 12486, 12487, 12488, 12489, 12490, 12491, 12492, 12493, 12494, 12495, 12496, 12497, 12498, 12499, 12500, 12501, 12502, 12503, 12504, 12505, 12506, 12507, 12508, 12509, 12510, 12511, 12512, 12513, 12514, 12515, 12516, 12517, 12518, 12519, 12520, 12521, 12522, 12523, 12524, 12525, 12526, 12527, 12528, 12529, 12530, 12531, 12532, 12533, 12534, 12535, 12536, 12537, 12538, 12539, 12540, 12541, 12542, 12543, 12544, 12545, 12546, 12547, 12548, 12549, 12550, 12551, 12552, 12553, 12554, 12555, 12556, 12557, 12558, 12559, 12560, 12561, 12562, 12563, 12564, 12565, 12566, 12567, 12568, 12569, 12570, 12571, 12572, 12573, 12574, 12575, 12576, 12577, 12578, 12579, 12580, 12581, 12582, 12583, 12584, 12585, 12586, 12587, 12588, 12589, 12590, 12591, 12592, 12593, 12594, 12595, 12596, 12597, 12598, 12599, 12600, 12601, 12602, 12603, 12604, 12605, 12606, 12607, 12608, 12609, 12610, 12611, 12612, 12613, 12614, 12615, 12616, 12617, 12618, 12619, 12620, 12621, 12622, 12623, 12624, 12625, 12626, 12627, 12628, 12629, 12630, 12631, 12632, 12633, 12634, 12635, 12636, 12637, 12638, 12639, 12640, 12641, 12642, 12643, 12644, 12645, 12646, 12647, 12648, 12649, 12650, 12651, 12652, 12653, 12654, 12655, 12656, 12657, 12658, 12659, 12660, 12661, 12662, 12663, 12664, 12665, 12666, 12667, 12668, 12669, 12670, 12671, 12672, 12673, 12674, 12675, 12676, 12677, 12678, 12680, 12681, 12682, 12683, 12684, 12685, 12686, 12687, 12688, 12689, 12690, 12691, 12692, 12693, 12694, 12695, 12696, 12697, 12698, 12699, 12700, 12701, 12702, 12703, 12704, 12705, 12706, 12707, 12708, 12709, 12710, 12711, 12712, 12713, 12714, 12715, 12716, 12717, 12718, 12719, 12720, 12721, 12722, 12723, 12724, 12725, 12726, 12727, 12728, 12729, 12730, 12731, 12732, 12733, 12734, 12735, 12736, 12737, 12738, 12739, 12740, 12741, 12742, 12743, 12744, 12745, 12746, 12747, 12748, 12749, 12750, 12751, 12752, 12753, 12754, 12755, 12756, 12757, 12758, 12759, 12760, 12761, 12762, 12763, 12764, 12765, 12766, 12767, 12768, 12769, 12770, 12771, 12772, 12773, 12774, 12775, 12776, 12777, 12778, 12779, 12780, 12781, 12782, 12783, 12784, 12785, 12786, 12787, 12788, 12789, 12790, 12791, 12792, 12793, 12794, 12795, 12796, 12797, 12798, 12799, 13306, 13309, 13311, 13316, 13317, 13319, 13320, 13329, 13332, 13333, 13335, 13337, 13338, 13343, 13345, 13347, 13350, 13351, 13352, 13353, 13354, 13357, 13358, 13359, 13360, 13361, 13362, 13363, 13364, 13365, 13366, 13367, 13368, 13369, 13370, 13372, 13373, 13374, 13375, 13377, 13378, 13379, 13380, 13381, 13382, 13383, 13384, 13385, 13386, 13387, 13388, 13389, 13390, 13391, 13392, 13393, 13394, 13395, 13396, 13397, 13398, 13399, 13400, 13401, 13402, 13403, 13404, 13405, 13406, 13407, 13408, 13409, 13410, 13411, 13412, 13413, 13414, 13415, 13416, 13417, 13418, 13419, 13420, 13421, 13422, 13423, 13424, 13425, 13426, 13427, 13428, 13429, 13430, 13431, 13432, 13433, 13434, 13435, 13436, 13437, 13438, 13439, 13440, 13442, 13443, 13444, 13446, 13447, 13448, 13449, 13450, 13451, 13452, 13455, 13456, 13457, 13458, 13467, 13471, 13488, 13504, 13522, 13523, 13524, 13528, 13532, 13533, 13534, 13535, 13536, 13540, 13541, 13545, 13547, 13550, 13555, 13556, 13557, 13561, 13568, 13572, 14101, 14106, 14109, 14111, 14112, 14115, 14116, 14117, 14119, 14120, 14121, 14123, 14125, 14126, 14127, 14128, 14129, 14131, 14132, 14133, 14134, 14135, 14137, 14138, 14139, 14140, 14143, 14145, 14146, 14147, 14149, 14150, 14151, 14152, 14153, 14154, 14155, 14157, 14158, 14159, 14160, 14161, 14162, 14163, 14164, 14165, 14166, 14167, 14168, 14169, 14170, 14173, 14174, 14175, 14177, 14179, 14180, 14181, 14182, 14183, 14184, 14185, 14186, 14187, 14188, 14189, 14190, 14191, 14192, 14193, 14195, 14196, 14199, 14200, 14201, 14202, 14203, 14204, 14205, 14206, 14207, 14208, 14210, 14211, 14213, 14214, 14216, 14217, 14218, 14219, 14221, 14222, 14223, 14226, 14227, 14228, 14229, 14230, 14231, 14232, 14233, 14235, 14236, 14238, 14239, 14243, 14246, 14247, 14248, 14249, 14250, 14252, 14255, 14256, 14257, 14258, 14267, 14271, 14324, 14347, 14350, 14355, 14356, 14357, 14361]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.06613756613756615</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'window': 2250}</t>
+          <t>{'window': 3750}</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>821.0664256049786</v>
+        <v>2535.437538252001</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[128, 142, 270, 341, 377, 402, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663]</t>
+          <t>[1908]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.2633889376646181</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'window': 300}</t>
+          <t>{'window': 2812}</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.821265228791162</v>
+        <v>1364.201056668</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1202,19 +1202,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[44, 318, 344, 812, 1196, 1580]</t>
+          <t>[812, 2348, 2732, 3500, 4268, 4652]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'window': 800}</t>
+          <t>{'window': 1625}</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>142.7627712760586</v>
+        <v>531.838405986</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1276,19 +1276,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.163938625477087</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'window': 8760}</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9980.935480439999</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[2091, 2470]</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'window': 4293}</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>9302.219689744001</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>

--- a/merlin_discord_results.xlsx
+++ b/merlin_discord_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
           <t>hotsaxtime_taken</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>our_identified</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>our_Overlap_merlin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ourbest_param</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ourtime_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,19 +586,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.06897740989825832</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3}</t>
+          <t>{'nbr_of_discord': 2}</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2068910328671336</v>
+        <v>9.548713276002673</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -595,6 +615,22 @@
       </c>
       <c r="R2" t="n">
         <v>0.03550573112443089</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>{'cluster': 21, 'training': 99, 'window': 200, 'threshold': 7.5}</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>7.146280079992721</v>
       </c>
     </row>
     <row r="3">
@@ -638,11 +674,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[4019, 4119, 4325]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.5542857142857143</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -650,7 +686,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.08758363500237465</v>
+        <v>6.333500795008149</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -667,6 +703,22 @@
       </c>
       <c r="R3" t="n">
         <v>0.01513355621136725</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>{'cluster': 14, 'training': 505, 'window': 200, 'threshold': 7.5}</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>7.100532320997445</v>
       </c>
     </row>
     <row r="4">
@@ -710,19 +762,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[1794, 1998, 2115]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.5467224546722456</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3}</t>
+          <t>{'nbr_of_discord': 1}</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09708475694060326</v>
+        <v>6.348740243003704</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -739,6 +791,22 @@
       </c>
       <c r="R4" t="n">
         <v>31.14406605693512</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>{'cluster': 19, 'training': 1285, 'window': 200, 'threshold': 1.0}</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>7.295923008001409</v>
       </c>
     </row>
     <row r="5">
@@ -782,19 +850,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[2237, 2358, 2472]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.6299212598425197</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3}</t>
+          <t>{'nbr_of_discord': 1}</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1412519870791584</v>
+        <v>2.917830125996261</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,6 +879,22 @@
       </c>
       <c r="R5" t="n">
         <v>41.6175090149045</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>{'cluster': 29, 'training': 547, 'window': 200, 'threshold': 2.5}</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1.749744459986687</v>
       </c>
     </row>
     <row r="6">
@@ -854,11 +938,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[633]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.415</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -866,7 +950,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.08168859221041203</v>
+        <v>1.578788136001094</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -883,6 +967,22 @@
       </c>
       <c r="R6" t="n">
         <v>0.05063261999748647</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>{'cluster': 17, 'training': 588, 'window': 200, 'threshold': 6.5}</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>1.658102211018559</v>
       </c>
     </row>
     <row r="7">
@@ -928,11 +1028,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[4001, 10352, 10870]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.8214894826606027</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -940,7 +1040,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.6277845858130604</v>
+        <v>322.7109206289897</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -957,6 +1057,22 @@
       </c>
       <c r="R7" t="n">
         <v>760.0004352540709</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>{'cluster': 13, 'training': 902, 'window': 600, 'threshold': 6.0}</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>324.0353059130139</v>
       </c>
     </row>
     <row r="8">
@@ -1000,11 +1116,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.005305391604217786</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1012,7 +1128,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5421023250091821</v>
+        <v>7.897293510992313</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1029,6 +1145,22 @@
       </c>
       <c r="R8" t="n">
         <v>146.0017200580332</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>{'cluster': 21, 'training': 617, 'window': 40, 'threshold': 5.5}</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>13.43527236499358</v>
       </c>
     </row>
     <row r="9">
@@ -1072,19 +1204,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[2288]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 1}</t>
+          <t>{'nbr_of_discord': 3}</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3054249219130725</v>
+        <v>47.41707140600192</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1101,6 +1233,22 @@
       </c>
       <c r="R9" t="n">
         <v>110.1698981439695</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>{'cluster': 26, 'training': 9, 'window': 200, 'threshold': 3.0}</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>49.42238001100486</v>
       </c>
     </row>
     <row r="10">
@@ -1144,19 +1292,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.02597402597402598</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 2}</t>
+          <t>{'nbr_of_discord': 1}</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2902566529810429</v>
+        <v>25.86091120999481</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1173,6 +1321,22 @@
       </c>
       <c r="R10" t="n">
         <v>231.9125139610842</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>{'cluster': 25, 'training': 125, 'window': 150, 'threshold': 7.5}</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>18.47641238599317</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1382,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[4880, 4968, 5018]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.45662100456621</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 3}</t>
+          <t>{'nbr_of_discord': 1}</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3579825779888779</v>
+        <v>3.623663021993707</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1247,6 +1411,22 @@
       </c>
       <c r="R11" t="n">
         <v>0.0345375060569495</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>{'cluster': 27, 'training': 90, 'window': 100, 'threshold': 4.5}</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>3.444788191001862</v>
       </c>
     </row>
     <row r="12">
@@ -1292,19 +1472,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[7786, 11010, 11453, 11904, 33993]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.7591623036649214</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{'nbr_of_discord': 5}</t>
+          <t>{'nbr_of_discord': 4}</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.548534706933424</v>
+        <v>1042.034869141004</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1321,6 +1501,22 @@
       </c>
       <c r="R12" t="n">
         <v>0.1674407089594752</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>{'cluster': 22, 'training': 3797, 'window': 800, 'threshold': 5.5}</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>1043.730741679028</v>
       </c>
     </row>
     <row r="13">
@@ -1366,11 +1562,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1889, 1890, 1891, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903, 1904, 1905, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1917, 1918, 1919, 1920, 1921, 1922, 1923, 1924, 1925, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937, 1938, 1939, 1940, 1941, 1942, 1943, 1944, 1945, 1946, 1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989, 1990, 1991, 1992, 1993, 1994, 1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2024, 2025, 2026, 2027, 2028, 2029, 2030, 2031, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2043, 2044, 2045, 2046, 2047, 2048, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2059, 2060, 2061, 2062, 2063, 2064, 2065, 2066, 2067, 2068, 2069, 2070, 2071, 2072, 2073, 2074, 2075, 2076, 2077, 2078, 2079, 2080, 2081, 2082, 2083, 2084, 2085, 2086, 2087, 2088, 2089, 2090, 2091, 2092, 2093, 2094, 2095, 2096, 2097, 2098, 2099, 2100, 2101, 2102, 2103, 2104, 2105, 2106, 2107, 2108, 2109, 2110, 2111, 2112, 2113, 2114, 2115, 2116, 2117, 2118, 2119, 2120, 2121, 2122, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2134, 2135, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2146, 2147, 2148, 2149, 2150, 2151, 2152, 2153, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2169, 2170, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185, 2186, 2187, 2188, 2189, 2190, 2191, 2192, 2193, 2194, 2195, 2196, 2197, 2198, 2199, 2200, 2201, 2202, 2203, 2204, 2205, 2206, 2207, 2208, 2209, 2210, 2211, 2212, 2213, 2214, 2215, 2216, 2217, 2218, 2219, 2220, 2221, 2222, 2223, 2224, 2225, 2226, 2227, 2228, 2229, 2230, 2231, 2232, 2233, 2234, 2235, 2236, 2237, 2238, 2239, 2240, 2241, 2242, 2243, 2244, 2245, 2246, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2255, 2256, 2257, 2258, 2259, 2260, 2261, 2262, 2263, 2264, 2265, 2266, 2267, 2268, 2269, 2270, 2271, 2272, 2273, 2274, 2275, 2276, 2277, 2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2293, 2294, 2295, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2310, 2311, 2312, 2313, 2314, 2315, 2316, 2317, 2318, 2319, 2320, 2321, 2322, 2323, 2324, 2325, 2326, 2327, 2328, 2329, 2330, 2331, 2332, 2333, 2334, 2335, 2336, 2337, 2338, 2339, 2340, 2341, 2342, 2343, 2344, 2345, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2354, 2355, 2356, 2357, 2358, 2359, 2360, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2369, 2370, 2371, 2372, 2373, 2374, 2375, 2376, 2377, 2378, 2379, 2380, 2381, 2382, 2383, 2384, 2385, 2386, 2387, 2388, 2389, 2390, 2391, 2392, 2393, 2394, 2395, 2396, 2397, 2398, 2399, 2400, 2401, 2402, 2403, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2415, 2416, 2417, 2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2431, 2432, 2433, 2434, 2435, 2436, 2437, 2438, 2439, 2440, 2441, 2442, 2443, 2444, 2445, 2446, 2447, 2448, 2449, 2450, 2451, 2452, 2453, 2454, 2455, 2456, 2457, 2458, 2459, 2460, 2461, 2462, 2463, 2464, 2465, 2466, 2467, 2468, 2469, 2470, 2471, 2472, 2473, 2474, 2475, 2476, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 2484, 2485, 2486, 2487, 2488, 2489, 2490, 2491, 2492, 2493, 2494, 2495, 2496, 2497, 2498, 2499, 2500, 2501, 2502, 2503, 2504, 2505, 2506, 2507, 2508, 2509, 2510, 2511, 2512, 2513, 2514, 2515, 2516, 2517, 2518, 2519, 2520, 2521, 2522, 2523, 2524, 2525, 2526, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543, 2544, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2555, 2556, 2557, 2558, 2559, 2560, 2561, 2562, 2563, 2564, 2565, 2566, 2567, 2568, 2569, 2570, 2571, 2572, 2573, 2574, 2575, 2576, 2577, 2578, 2579, 2580, 2581, 2582, 2583, 2584, 2585, 2586, 2587, 2588, 2589, 2590, 2591, 2592, 2593, 2594, 2595, 2596, 2597, 2598, 2599, 2600, 2601, 2602, 2603, 2604, 2605, 2606, 2607, 2608, 2609, 2610, 2611, 2612, 2613, 2614, 2615, 2616, 2617, 2618, 2619, 2620, 2621, 2622, 2623, 2624, 2625, 2626, 2627, 2628, 2629, 2630, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2639, 2640, 2641, 2642, 2643, 2644, 2645, 2646, 2647, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2660, 2661, 2662, 2663, 2664, 2665, 2666, 2667, 2668, 2669, 2670, 2671, 2672, 2673, 2674, 2675, 2676, 2677, 2678, 2679, 2680, 2681, 2682, 2683, 2684, 2685, 2686, 2687, 2688, 2689, 2690, 2691, 2692, 2693, 2694, 2695, 2696, 2697, 2698, 2699, 2700, 2701, 2702, 2703, 2704, 2705, 2706, 2707, 2708, 2709, 2710, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2719, 2720, 2721, 2722, 2723, 2724, 2725, 2726, 2727, 2728, 2729, 2730, 2731, 2732, 2733, 2734, 2735, 2736, 2737, 2738, 2739, 2740, 2741, 2742, 2743, 2744, 2745, 2746, 2747, 2748, 2749, 2750, 2751, 2752, 2753, 2754, 2755, 2756, 2757, 2758, 2759, 2760, 2761, 2762, 2763, 2764, 2765, 2766, 2767, 2768, 2769, 2770, 2771, 2772, 2773, 2774, 2775, 2776, 2777, 2778, 2779, 2780, 2781, 2782, 2783, 2784, 2785, 2786, 2787, 2788, 2789, 2790, 2791, 2792, 2793, 2794, 2795, 2796, 2797, 2798, 2799, 2800, 2801, 2802, 2803, 2804, 2805, 2806, 2807, 2808, 2809, 2810, 2811, 2812, 2813, 2814, 2815, 2816, 2817, 2818, 2819, 2820, 2821, 2822, 2823, 2824, 2825, 2826, 2827, 2828, 2829, 2830, 2831, 2832, 2833, 2834, 2835, 2836, 2837, 2838, 2839, 2840, 2841, 2842, 2843, 2844, 2845, 2846, 2847, 2848, 2849, 2850, 2851, 2852, 2853, 2854, 2855, 2856, 2857, 2858, 2859, 2860, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2869, 2870, 2871, 2872, 2873, 2874, 2875, 2876, 2877, 2878, 2879, 2880, 2881, 2882, 2883, 2884, 2885, 2886, 2887, 2888, 2889, 2890, 2891, 2892, 2893, 2894, 2895, 2896, 2897, 2898, 2899, 2900, 2901, 2902, 2903, 2904, 2905, 2906, 2907, 2908, 2909, 2910, 2911, 2912, 2913, 2914, 2915, 2916, 2917, 2918, 2919, 2920, 2921, 2922, 2923, 2924, 2925, 2926, 2927, 2928, 2929, 2930, 2931, 2932, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 2941, 2942, 2943, 2944, 2945, 2946, 2947, 2948, 2949, 2950, 2951, 2952, 2953, 2954, 2955, 2956, 2957, 2958, 2959, 2960, 2961, 2962, 2963, 2964, 2965, 2966, 2967, 2968, 2969, 2970, 2971, 2972, 2973, 2974, 2975, 2976, 2977, 2978, 2979, 2980, 2981, 2982, 2983, 2984, 2985, 2986, 2987, 2988, 2989, 2990, 2991, 2992, 2993, 2994, 2995, 2996, 2997, 2998, 2999, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3007, 3008, 3009, 3010, 3011, 3012, 3013, 3014, 3015, 3016, 3017, 3018, 3019, 3020, 3021, 3022, 3023, 3024, 3025, 3026, 3027, 3028, 3029, 3030, 3031, 3032, 3033, 3034, 3035, 3036, 3037, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045, 3046, 3047, 3048, 3049, 3050, 3051, 3052, 3053, 3054, 3055, 3056, 3057, 3058, 3059, 3060, 3061, 3062, 3063, 3064, 3065, 3066, 3067, 3068, 3069, 3070, 3071, 3072, 3073, 3074, 3075, 3076, 3077, 3078, 3079, 3080, 3081, 3082, 3083, 3084, 3085, 3086, 3087, 3088, 3089, 3090, 3091, 3092, 3093, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3104, 3105, 3106, 3107, 3108, 3109, 3110, 3111, 3112, 3113, 3114, 3115, 3116, 3117, 3118, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 3133, 3134, 3135, 3136, 3137, 3138, 3139, 3140, 3141, 3142, 3143, 3144, 3145, 3146, 3147, 3148, 3149, 3150, 3151, 3152, 3153, 3154, 3155, 3156, 3157, 3158, 3159, 3160, 3161, 3162, 3163, 3164, 3165, 3166, 3167, 3168, 3169, 3170, 3171, 3172, 3173, 3174, 3175, 3176, 3177, 3178, 3179, 3180, 3181, 3182, 3183, 3184, 3185, 3186, 3187, 3188, 3189, 3190, 3191, 3192, 3193, 3194, 3195, 3196, 3197, 3198, 3199, 3200, 3201, 3202, 3203, 3204, 3205, 3206, 3207, 3208, 3209, 3210, 3211, 3212, 3213, 3214, 3215, 3216, 3217, 3218, 3219, 3220, 3221, 3222, 3223, 3224, 3225, 3226, 3227, 3228, 3229, 3230, 3231, 3232, 3233, 3234, 3235, 3236, 3237, 3238, 3239, 3240, 3241, 3242, 3243, 3244, 3245, 3246, 3247, 3248, 3249, 3250, 3251, 3252, 3253, 3254, 3255, 3256, 3257, 3258, 3259, 3260, 3261, 3262, 3263, 3264, 3265, 3266, 3267, 3268, 3269, 3270, 3271, 3272, 3273, 3274, 3275, 3276, 3277, 3278, 3279, 3280, 3281, 3282, 3283, 3284, 3285, 3286, 3287, 3288, 3289, 3290, 3291, 3292, 3293, 3294, 3295, 3296, 3297, 3298, 3299, 3300, 3301, 3302, 3303, 3304, 3305, 3306, 3307, 3308, 3309, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317, 3318, 3319, 3320, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 3328, 3329, 3330, 3331, 3332, 3333, 3334, 3335, 3336, 3337, 3338, 3339, 3340, 3341, 3342, 3343, 3344, 3345, 3346, 3347, 3348, 3349, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3361, 3362, 3363, 3364, 3365, 3366, 3367, 3368, 3369, 3370, 3371, 3372, 3373, 3374, 3375, 3376, 3377, 3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3386, 3387, 3388, 3389, 3390, 3391, 3392, 3393, 3394, 3395, 3396, 3397, 3398, 3399, 3400, 3401, 3402, 3403, 3404, 3405, 3406, 3407, 3408, 3409, 3410, 3411, 3412, 3413, 3414, 3415, 3416, 3417, 3418, 3419, 3420, 3421, 3422, 3423, 3424, 3425, 3426, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 3434, 3435, 3436, 3437, 3438, 3439, 3440, 3441, 3442, 3443, 3444, 3445, 3446, 3447, 3448, 3449, 3450, 3451, 3452, 3453, 3454, 3455, 3456, 3457, 3458, 3459, 3460, 3461, 3462, 3463, 3464, 3465, 3466, 3467, 3468, 3469, 3470, 3471, 3472, 3473, 3474, 3475, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3484, 3485, 3486, 3487, 3488, 3489, 3490, 3491, 3492, 3493, 3494, 3495, 3496, 3497, 3498, 3499, 3500, 3501, 3502, 3503, 3504, 3505, 3506, 3507, 3508, 3509, 3510, 3511, 3512, 3513, 3514, 3515, 3516, 3517, 3518, 3519, 3520, 3521, 3522, 3523, 3524, 3525, 3526, 3527, 3528, 3529, 3530, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 3538, 3539, 3540, 3541, 3542, 3543, 3544, 3545, 3546, 3547, 3548, 3549, 3550, 3551, 3552, 3553, 3554, 3555, 3556, 3557, 3558, 3559, 3560, 3561, 3562, 3563, 3564, 3565, 3566, 3567, 3568, 3569, 3570, 3571, 3572, 3573, 3574, 3575, 3576, 3577, 3578, 3579, 3580, 3581, 3582, 3583, 3584, 3585, 3586, 3587, 3588, 3589, 3590, 3591, 3592, 3593, 3594, 3595, 3596, 3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3605, 3606, 3607, 3608, 3609, 3610, 3611, 3612, 3613, 3614, 3615, 3616, 3617, 3618, 3619, 3620, 3621, 3622, 3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3631, 3632, 3633, 3634, 3635, 3636, 3637, 3638, 3639, 3640, 3641, 3642, 3643, 3644, 3645, 3646, 3647, 3648, 3649, 3650, 3651, 3652, 3653, 3654, 3655, 3656, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704, 3705, 3706, 3707, 3708, 3709, 3710, 3711, 3712, 3713, 3714, 3715, 3716, 3717, 3718, 3719, 3720, 3721, 3722, 3723, 3724, 3725, 3726, 3727, 3728, 3729, 3730, 3731, 3732, 3733, 3734, 3735, 3736, 3737, 3738, 3739, 3740, 3741, 3742, 3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753, 3754, 3755, 3756, 3757, 3758, 3759, 3760, 3761, 3762, 3763, 3764, 3765, 3766, 3767, 3768, 3769, 3770, 3771, 3772, 3773, 3774, 3775, 3776, 3777, 3778, 3779, 3780, 3781, 3782, 3783, 3784, 3785, 3786, 3787, 3788, 3789, 3790, 3791, 3792, 3793, 3794, 3795, 3796, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 3806, 3807, 3808, 3809, 3810, 3811, 3812, 3813, 3814, 3815, 3816, 3817, 3818, 3819, 3820, 3821, 3822, 3823, 3824, 3825, 3826, 3827, 3828, 3829, 3830, 3831, 3832, 3833, 3834, 3835, 3836, 3837, 3838, 3839, 3840, 3841, 3842, 3843, 3844, 3845, 3846, 3847, 3848, 3849, 3850, 3851, 3852, 3853, 3854, 3855, 3856, 3857, 3858, 3859, 3860, 3861, 3862, 3863, 3864, 3865, 3866, 3867, 3868, 3869, 3870, 3871, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 3879, 3880, 3881, 3882, 3883, 3884, 3885, 3886, 3887, 3888, 3889, 3890, 3891, 3892, 3893, 3894, 3895, 3896, 3897, 3898, 3899, 3900, 3901, 3902, 3903, 3904, 3905, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 3925, 3926, 3927, 3928, 3929, 3930, 3931, 3932, 3933, 3934, 3935, 3936, 3937, 3938, 3939, 3940, 3941, 3942, 3943, 3944, 3945, 3946, 3947, 3948, 3949, 3950, 3951, 3952, 3953, 3954, 3955, 3956, 3957, 3958, 3959, 3960, 3961, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 3990, 3991, 3992, 3993, 3994, 3995, 3996, 3997, 3998, 3999, 4000, 4001, 4002, 4003, 4004, 4005, 4006, 4007, 4008, 4009, 4010, 4011, 4012, 4013, 4014, 4015, 4016, 4017, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4050, 4051, 4052, 4053, 4054, 4055, 4056, 4057, 4058, 4059, 4060, 4061, 4062, 4063, 4064, 4065, 4066, 4067, 4068, 4069, 4070, 4071, 4072, 4073, 4074, 4075, 4076, 4077, 4078, 4079, 4080, 4081, 4082, 4083, 4084, 4085, 4086, 4087, 4088, 4089, 4090, 4091, 4092, 4093, 4094, 4095, 4096, 4097, 4098, 4099, 4100, 4101, 4102, 4103, 4104, 4105, 4106, 4107, 4108, 4109, 4110, 4111, 4112, 4113, 4114, 4115, 4116, 4117, 4118, 4119, 4120, 4121, 4122, 4123, 4124, 4125, 4126, 4127, 4128, 4129, 4130, 4131, 4132, 4133, 4134, 4135, 4136, 4137, 4138, 4139, 4140, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 4149, 4150, 4151, 4152, 4153, 4154, 4155, 4156, 4157, 4158, 4159, 4160, 4161, 4162, 4163, 4164, 4165, 4166, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4174, 4175, 4176, 4177, 4178, 4179, 4180, 4181, 4182, 4183, 4184, 4185, 4186, 4187, 4188, 4189, 4190, 4191, 4192, 4193, 4194, 4195, 4196, 4197, 4198, 4199, 4200, 4201, 4202, 4203, 4204, 4205, 4206, 4207, 4208, 4209, 4210, 4211, 4212, 4213, 4214, 4215, 4216, 4217, 4218, 4219, 4220, 4221, 4222, 4223, 4224, 4225, 4226, 4227, 4228, 4229, 4230, 4231, 4232, 4233, 4234, 4235, 4236, 4237, 4238, 4239, 4240, 4241, 4242, 4243, 4244, 4245, 4246, 4247, 4248, 4249, 4250, 4251, 4252, 4253, 4254, 4255, 4256, 4257, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4266, 4267, 4268, 4269, 4270, 4271, 4272, 4273, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 4283, 4284, 4285, 4286, 4287, 4288, 4289, 4290, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4298, 4299, 4300, 4301, 4302, 4303, 4304, 4305, 4306, 4307, 4308, 4309, 4310, 4311, 4312, 4313, 4314, 4315, 4316, 4317, 4318, 4319, 4320, 4321, 4322, 4323, 4324, 4325, 4326, 4327, 4328, 4329, 4330, 4331, 4332, 4333, 4334, 4335, 4336, 4337, 4338, 4339, 4340, 4341, 4342, 4343, 4344, 4345, 4346, 4347, 4348, 4349, 4350, 4351, 4352, 4353, 4354, 4355, 4356, 4357, 4358, 4359, 4360, 4361, 4362, 4363, 4364, 4365, 4366, 4367, 4368, 4369, 4370, 4371, 4372, 4373, 4374, 4375, 4376, 4377, 4378, 4379, 4380, 4381, 4382, 4383, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4418, 4419, 4420, 4421, 4422, 4423, 4424, 4425, 4426, 4427, 4428, 4429, 4430, 4431, 4432, 4433, 4434, 4435, 4436, 4437, 4438, 4439, 4440, 4441, 4442, 4443, 4444, 4445, 4446, 4447, 4448, 4449, 4450, 4451, 4452, 4453, 4454, 4455, 4456, 4457, 4458, 4459, 4460, 4461, 4462, 4463, 4464, 4465, 4466, 4467, 4468, 4469, 4470, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4478, 4479, 4480, 4481, 4482, 4483, 4484, 4485, 4486, 4487, 4488, 4489, 4490, 4491, 4492, 4493, 4494, 4495, 4496, 4497, 4498, 4499, 4500, 4501, 4502, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510, 4511, 4512, 4513, 4514, 4515, 4516, 4517, 4518, 4519, 4520, 4521, 4522, 4523, 4524, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4540, 4541, 4542, 4543, 4544, 4545, 4546, 4547, 4548, 4549, 4550, 4551, 4552, 4553, 4554, 4555, 4556, 4557, 4558, 4559, 4560, 4561, 4562, 4563, 4564, 4565, 4566, 4567, 4568, 4569, 4570, 4571, 4572, 4573, 4574, 4575, 4576, 4577, 4578, 4579, 4580, 4581, 4582, 4583, 4584, 4585, 4586, 4587, 4588, 4589, 4590, 4591, 4592, 4593, 4594, 4595, 4596, 4597, 4598, 4599, 4600, 4601, 4602, 4603, 4604, 4605, 4606, 4607, 4608, 4609, 4610, 4611, 4612, 4613, 4614, 4615, 4616, 4617, 4618, 4619, 4620, 4621, 4622, 4623, 4624, 4625, 4626, 4627, 4628, 4629, 4630, 4631, 4632, 4633, 4634, 4635, 4636, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649, 4650, 4651, 4652, 4653, 4654, 4655, 4656, 4657, 4658, 4659, 4660, 4661, 4662, 4663, 4664, 4665, 4666, 4667, 4668, 4669, 4670, 4671, 4672, 4673, 4674, 4675, 4676, 4677, 4678, 4679, 4680, 4681, 4682, 4683, 4684, 4685, 4686, 4687, 4688, 4689, 4690, 4691, 4692, 4693, 4694, 4695, 4696, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 4704, 4705, 4706, 4707, 4708, 4709, 4710, 4711, 4712, 4713, 4714, 4715, 4716, 4717, 4718, 4719, 4720, 4721, 4722, 4723, 4724, 4725, 4726, 4727, 4728, 4729, 4730, 4731, 4732, 4733, 4734, 4735, 4736, 4737, 4738, 4739, 4740, 4741, 4742, 4743, 4744, 4745, 4746, 4747, 4748, 4749, 4750, 4751, 4752, 4753, 4754, 4755, 4756, 4757, 4758, 4759, 4760, 4761, 4762, 4763, 4764, 4765, 4766, 4767, 4768, 4769, 4770, 4771, 4772, 4773, 4774, 4775, 4776, 4777, 4778, 4779, 4780, 4781, 4782, 4783, 4784, 4785, 4786, 4787, 4788, 4789, 4790, 4791, 4792, 4793, 4794, 4795, 4796, 4797, 4798, 4799, 4800, 4801, 4802, 4803, 4804, 4805, 4806, 4807, 4808, 4809, 4810, 4811, 4812, 4813, 4814, 4815, 4816, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 4824, 4825, 4826, 4827, 4828, 4829, 4830, 4831, 4832, 4833, 4834, 4835, 4836, 4837, 4838, 4839, 4840, 4841, 4842, 4843, 4844, 4845, 4846, 4847, 4848, 4849, 4850, 4851, 4852, 4853, 4854, 4855, 4856, 4857, 4858, 4859, 4860, 4861, 4862, 4863, 4864, 4865, 4866, 4867, 4868, 4869, 4870, 4871, 4872, 4873, 4874, 4875, 4876, 4877, 4878, 4879, 4880, 4881, 4882, 4883, 4884, 4885, 4886, 4887, 4888, 4889, 4890, 4891, 4892, 4893, 4894, 4895, 4896, 4897, 4898, 4899, 4900, 4901, 4902, 4903, 4904, 4905, 4906, 4907, 4908, 4909, 4910, 4911, 4912, 4913, 4914, 4915, 4916, 4917, 4918, 4919, 4920, 4921, 4922, 4923, 4924, 4925, 4926, 4927, 4928, 4929, 4930, 4931, 4932, 4933, 4934, 4935, 4936, 4937, 4938, 4939, 4940, 4941, 4942, 4943, 4944, 4945, 4946, 4947, 4948, 4949, 4950, 4951, 4952, 4953, 4954, 4955, 4956, 4957, 4958, 4959, 4960, 4961, 4962, 4963, 4964, 4965, 4966, 4967, 4968, 4969, 4970, 4971, 4972, 4973, 4974, 4975, 4976, 4977, 4978, 4979, 4980, 4981, 4982, 4983, 4984, 4985, 4986, 4987, 4988, 4989, 4990, 4991, 4992, 4993, 4994, 4995, 4996, 4997, 4998, 4999, 5000, 5001, 5002, 5003, 5004, 5005, 5006, 5007, 5008, 5009, 5010, 5011, 5012, 5013, 5014, 5015, 5016, 5017, 5018, 5019, 5020, 5021, 5022, 5023, 5024, 5025, 5026, 5027, 5028, 5029, 5030, 5031, 5032, 5033, 5034, 5035, 5036, 5037, 5038, 5039, 5040, 5041, 5042, 5043, 5044, 5045, 5046, 5047, 5048, 5049, 5050, 5051, 5052, 5053, 5054, 5055, 5056, 5057, 5058, 5059, 5060, 5061, 5062, 5063, 5064, 5065, 5066, 5067, 5068, 5069, 5070, 5071, 5072, 5073, 5074, 5075, 5076, 5077, 5078, 5079, 5080, 5081, 5082, 5083, 5084, 5085, 5086, 5087, 5088, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 5097, 5098, 5099, 5100, 5101, 5102, 5103, 5104, 5105, 5106, 5107, 5108, 5109, 5110, 5111, 5112, 5113, 5114, 5115, 5116, 5117, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 5125, 5126, 5127, 5128, 5129, 5130, 5131, 5132, 5133, 5134, 5135, 5136, 5137, 5138, 5139, 5140, 5141, 5142, 5143, 5144, 5145, 5146, 5147, 5148, 5149, 5150, 5151, 5152, 5153, 5154, 5155, 5156, 5157, 5158, 5159, 5160, 5161, 5162, 5163, 5164, 5165, 5166, 5167, 5168, 5169, 5170, 5171, 5172, 5173, 5174, 5175, 5176, 5177, 5178, 5179, 5180, 5181, 5182, 5183, 5184, 5185, 5186, 5187, 5188, 5189, 5190, 5191, 5192, 5193, 5194, 5195, 5196, 5197, 5198, 5199, 5200, 5201, 5202, 5203, 5204, 5205, 5206, 5207, 5208, 5209, 5210, 5211, 5212, 5213, 5214, 5215, 5216, 5217, 5218, 5219, 5220, 5221, 5222, 5223, 5224, 5225, 5226, 5227, 5228, 5229, 5230, 5231, 5232, 5233, 5234, 5235, 5236, 5237, 5238, 5239, 5240, 5241, 5242, 5243, 5244, 5245, 5246, 5247, 5248, 5249, 5250, 5251, 5252, 5253, 5254, 5255, 5256, 5257, 5258, 5259, 5260, 5261, 5262, 5263, 5264, 5265, 5266, 5267, 5268, 5269, 5270, 5271, 5272, 5273, 5274, 5275, 5276, 5277, 5278, 5279, 5280, 5281, 5282, 5283, 5284, 5285, 5286, 5287, 5288, 5289, 5290, 5291, 5292, 5293, 5294, 5295, 5296, 5297, 5298, 5299, 5300, 5301, 5302, 5303, 5304, 5305, 5306, 5307, 5308, 5309, 5310, 5311, 5312, 5313, 5314, 5315, 5316, 5317, 5318, 5319, 5320, 5321, 5322, 5323, 5324, 5325, 5326, 5327, 5328, 5329, 5330, 5331, 5332, 5333, 5334, 5335, 5336, 5337, 5338, 5339, 5340, 5341, 5342, 5343, 5344, 5345, 5346, 5347, 5348, 5349, 5350, 5351, 5352, 5353, 5354, 5355, 5356, 5357, 5358, 5359, 5360, 5361, 5362, 5363, 5364, 5365, 5366, 5367, 5368, 5369, 5370, 5371, 5372, 5373, 5374, 5375, 5376, 5377, 5378, 5379, 5380, 5381, 5382, 5383, 5384, 5385, 5386, 5387, 5388, 5389, 5390, 5391, 5392, 5393, 5394, 5395, 5396, 5397, 5398, 5399, 5400, 5401, 5402, 5403, 5404, 5405, 5406, 5407, 5408, 5409, 5410, 5411, 5412, 5413, 5414, 5415, 5416, 5417, 5418, 5419, 5420, 5421, 5422, 5423, 5424, 5425, 5426, 5427, 5428, 5429, 5430, 5431, 5432, 5433, 5434, 5435, 5436, 5437, 5438, 5439, 5440, 5441, 5442, 5443, 5444, 5445, 5446, 5447, 5448, 5449, 5450, 5451, 5452, 5453, 5454, 5455, 5456, 5457, 5458, 5459, 5460, 5461, 5462, 5463, 5464, 5465, 5466, 5467, 5468, 5469, 5470, 5471, 5472, 5473, 5474, 5475, 5476, 5477, 5478, 5479, 5480, 5481, 5482, 5483, 5484, 5485, 5486, 5487, 5488, 5489, 5490, 5491, 5492, 5493, 5494, 5495, 5496, 5497, 5498, 5499, 5500, 5501, 5502, 5503, 5504, 5505, 5506, 5507, 5508, 5509, 5510, 5511, 5512, 5513, 5514, 5515, 5516, 5517, 5518, 5519, 5520, 5521, 5522, 5523, 5524, 5525, 5526, 5527, 5528, 5529, 5530, 5531, 5532, 5533, 5534, 5535, 5536, 5537, 5538, 5539, 5540, 5541, 5542, 5543, 5544, 5545, 5546, 5547, 5548, 5549, 5550, 5551, 5552, 5553, 5554, 5555, 5556, 5557, 5558, 5559, 5560, 5561, 5562, 5563, 5564, 5565, 5566, 5567, 5568, 5569, 5570, 5571, 5572, 5573, 5574, 5575, 5576, 5577, 5578, 5579, 5580, 5581, 5582, 5583, 5584, 5585, 5586, 5587, 5588, 5589, 5590, 5591, 5592, 5593, 5594, 5595, 5596, 5597, 5598, 5599, 5600, 5601, 5602, 5603, 5604, 5605, 5606, 5607, 5608, 5609, 5610, 5611, 5612, 5613, 5614, 5615, 5616, 5617, 5618, 5619, 5620, 5621, 5622, 5623, 5624, 5625, 5626, 5627, 5628, 5629, 5630, 5631, 5632, 5633, 5634, 5635, 5636, 5637, 5638, 5639, 5640, 5641, 5642, 5643, 5644, 5645, </t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.08012259194395797</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1378,7 +1574,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.049737927038223</v>
+        <v>206.273512202999</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1395,6 +1591,22 @@
       </c>
       <c r="R13" t="n">
         <v>377.1959730519447</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>{'cluster': 29, 'training': 3093, 'window': 366, 'threshold': 8.0}</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>115.5842386069999</v>
       </c>
     </row>
   </sheetData>
